--- a/data/trans_bre/P19D_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19D_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.882592256205932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-8.780704555583416</v>
+        <v>-8.780704555583421</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3295835864792107</v>
@@ -649,7 +649,7 @@
         <v>-0.1857738787346327</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3916442692576166</v>
+        <v>-0.3916442692576168</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.229531408345839</v>
+        <v>-7.797714250848483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.727787923464234</v>
+        <v>-8.796691820057442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.121471606549044</v>
+        <v>-6.382702662174246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.99224020257229</v>
+        <v>-13.86035532100787</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5523607526821313</v>
+        <v>-0.5384590198928066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3833772485997929</v>
+        <v>-0.384312513187266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3527028818285962</v>
+        <v>-0.3611634723163323</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5370281660457605</v>
+        <v>-0.5317475376899895</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.3536988283261975</v>
+        <v>-0.02610792632158348</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.9861843017211807</v>
+        <v>-1.069269389279024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6275268321122044</v>
+        <v>0.5716258540016476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-4.429008778506096</v>
+        <v>-4.398920079736042</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.02235343177949817</v>
+        <v>0.01140141835380276</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.05331419586518035</v>
+        <v>-0.05156635227885611</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04501691130859137</v>
+        <v>0.04529830614351858</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2173747090652546</v>
+        <v>-0.2086292765609022</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.7292988741045905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.972918680401837</v>
+        <v>-3.972918680401838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.072679970438733</v>
@@ -749,7 +749,7 @@
         <v>0.1017311038250123</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3791950925448226</v>
+        <v>-0.3791950925448227</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.16981075788808</v>
+        <v>-2.916750588363324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.084678834268256</v>
+        <v>-6.689731481753439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.173626865135092</v>
+        <v>-2.120702524302363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.013920460629604</v>
+        <v>-6.635797955890046</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3574036710538933</v>
+        <v>-0.3310428639015317</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4302813873527768</v>
+        <v>-0.4041437758913936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2528846367658691</v>
+        <v>-0.2409610156600181</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5346010865548411</v>
+        <v>-0.5395893286870299</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.898334523770821</v>
+        <v>2.307464569154975</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.5163685602707141</v>
+        <v>-0.2544752037064921</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.645094094595116</v>
+        <v>3.187726376322772</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.591058003444092</v>
+        <v>-1.533788276555505</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.309999035900268</v>
+        <v>0.413619855779494</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03835706262993296</v>
+        <v>-0.01645102221342149</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6287497536155955</v>
+        <v>0.5632306986976319</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1570966410450223</v>
+        <v>-0.1738486614611071</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.641545574872788</v>
+        <v>-1.732949932107952</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.236319764081008</v>
+        <v>-3.593871901747121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.301601560054625</v>
+        <v>-3.120498550697338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.861884307039714</v>
+        <v>-5.242642066442573</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2541671053835706</v>
+        <v>-0.2652270361225815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4015107822175025</v>
+        <v>-0.3443606478842879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.389005148651566</v>
+        <v>-0.3602648129304001</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6999987801801709</v>
+        <v>-0.7178878175466153</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.766808914027755</v>
+        <v>2.871630210398344</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.90292188056601</v>
+        <v>1.979135202179643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.44717471329387</v>
+        <v>2.793212550322881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.380050716105588</v>
+        <v>-1.375943326958467</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6394792945709545</v>
+        <v>0.6593046459698798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2524304951537741</v>
+        <v>0.2702411939097943</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.424233222103144</v>
+        <v>0.5087972742668099</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.2839549443936312</v>
+        <v>-0.3038172199655679</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.6899784785050045</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3622301071272087</v>
+        <v>0.3622301071272094</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1809212786621948</v>
@@ -949,7 +949,7 @@
         <v>0.1444713424683418</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1064529676942913</v>
+        <v>0.1064529676942915</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.769793111272605</v>
+        <v>-4.448554705252678</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.426263292058024</v>
+        <v>-5.538546499816953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.355666401422209</v>
+        <v>-2.378873256261525</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.642137920715386</v>
+        <v>-1.812487618555129</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6281621843941306</v>
+        <v>-0.5774259785127537</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5919426989137855</v>
+        <v>-0.6020779073236145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3950828587782452</v>
+        <v>-0.3981781801609721</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3779157507035897</v>
+        <v>-0.4018108700710457</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.375554350250834</v>
+        <v>2.895567704477368</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.33751120448965</v>
+        <v>1.418075786809688</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.010868361066047</v>
+        <v>3.72236739995336</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.095000252297907</v>
+        <v>1.999793510212577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5892275375398143</v>
+        <v>0.7981496874601224</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2747806945411639</v>
+        <v>0.2691512039015455</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.230284583324183</v>
+        <v>1.11520005183973</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8914742347411747</v>
+        <v>0.8073440864604682</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.44399563462795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.713705763551224</v>
+        <v>-2.713705763551222</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.07914279974326989</v>
@@ -1049,7 +1049,7 @@
         <v>-0.04768081975115307</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3162058212027675</v>
+        <v>-0.3162058212027673</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.04582191717834</v>
+        <v>-2.027827174956777</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.436647147621203</v>
+        <v>-4.466150020805748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.013050049618499</v>
+        <v>-2.019175417318525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.249899406006111</v>
+        <v>-4.072305620582642</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2510880987117953</v>
+        <v>-0.2534085066776957</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3015776127134103</v>
+        <v>-0.3018189584078456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1968024067965932</v>
+        <v>-0.1952528983085598</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4344143999551381</v>
+        <v>-0.4261458664377448</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8122711738678277</v>
+        <v>0.8298757937700401</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.018272290528156</v>
+        <v>-0.9160364873919931</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.18598419922676</v>
+        <v>1.18412507733323</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.521019937571237</v>
+        <v>-1.506593544433157</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1281712353761571</v>
+        <v>0.1238912859696745</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.07916560939422156</v>
+        <v>-0.06972617095440817</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1486980322400547</v>
+        <v>0.1438057455739851</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1923638047119876</v>
+        <v>-0.1961735666868602</v>
       </c>
     </row>
     <row r="19">
